--- a/ToyotaCertificateIssue.xlsx
+++ b/ToyotaCertificateIssue.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test cases" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
   <si>
     <t>Created By:-</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Project :-</t>
   </si>
   <si>
-    <t>Lead_Developer. :-Alok Srivastava</t>
-  </si>
-  <si>
     <t>Created_By :-</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
   </si>
   <si>
     <t>Assigned To</t>
-  </si>
-  <si>
-    <t>MB</t>
   </si>
   <si>
     <t>AgreementCertificate_TC_1</t>
@@ -225,9 +219,6 @@
     <t>Agreement Certificate</t>
   </si>
   <si>
-    <t>Project Name:-</t>
-  </si>
-  <si>
     <t>Apurwa</t>
   </si>
   <si>
@@ -320,6 +311,33 @@
   </si>
   <si>
     <t>Certificate Number=TKI184270</t>
+  </si>
+  <si>
+    <t>Re-Tested Date:-13/11/2020</t>
+  </si>
+  <si>
+    <t>Power _ID</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Retesting Status</t>
+  </si>
+  <si>
+    <t>Retesting Power ID</t>
+  </si>
+  <si>
+    <t>Lead_Developer. :-</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Project Name:-Toyota</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
   </si>
 </sst>
 </file>
@@ -468,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -528,12 +546,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -555,77 +606,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -653,6 +638,90 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -935,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,39 +1020,44 @@
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>3</v>
@@ -992,45 +1066,49 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="19"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="26"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="14" t="s">
-        <v>56</v>
+      <c r="F4" s="26"/>
+      <c r="G4" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1038,8 +1116,10 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1079,10 +1159,16 @@
       <c r="M5" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="7">
         <v>12971</v>
@@ -1105,15 +1191,25 @@
       <c r="J6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="M6" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N6" s="34">
+        <v>12989</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="7">
         <v>12971</v>
@@ -1122,7 +1218,7 @@
         <v>44145</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1134,21 +1230,31 @@
         <v>28</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="N7" s="34">
+        <v>12989</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="7">
         <v>12971</v>
@@ -1157,33 +1263,43 @@
         <v>44145</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="34">
+        <v>12989</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="7">
         <v>12971</v>
@@ -1192,7 +1308,7 @@
         <v>44145</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -1204,21 +1320,31 @@
         <v>29</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="M9" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="N9" s="34">
+        <v>12989</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="7">
         <v>12971</v>
@@ -1227,33 +1353,43 @@
         <v>44145</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="34">
+        <v>12989</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="7">
         <v>12971</v>
@@ -1262,7 +1398,7 @@
         <v>44145</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>23</v>
@@ -1274,21 +1410,31 @@
         <v>30</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N11" s="34">
+        <v>12989</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B12" s="7">
         <v>12971</v>
@@ -1297,33 +1443,43 @@
         <v>44145</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="34">
+        <v>12989</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" s="7">
         <v>12971</v>
@@ -1332,7 +1488,7 @@
         <v>44145</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>23</v>
@@ -1341,24 +1497,34 @@
         <v>27</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="N13" s="34">
+        <v>12989</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B14" s="7">
         <v>12971</v>
@@ -1367,31 +1533,41 @@
         <v>44145</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="34">
+        <v>12989</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1403,10 +1579,12 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="6"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1418,10 +1596,12 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="6"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1433,10 +1613,12 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="6"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1448,10 +1630,12 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L18" s="6"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1463,10 +1647,12 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="6"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1478,10 +1664,12 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="L20" s="6"/>
       <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="6"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1493,10 +1681,12 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="6"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1508,10 +1698,12 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="6"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1523,15 +1715,17 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="4"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -1548,15 +1742,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1566,7 +1760,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -1575,58 +1769,58 @@
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="E3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="F3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="35" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="16">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16">
+        <v>9</v>
+      </c>
+      <c r="D4" s="17">
+        <v>9</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="38">
+      <c r="B5" s="19">
         <v>9</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C5" s="16">
         <v>9</v>
       </c>
-      <c r="D4" s="39">
-        <v>5</v>
-      </c>
-      <c r="E4" s="40">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="41">
+      <c r="D5" s="17">
         <v>9</v>
       </c>
-      <c r="C5" s="38">
-        <v>9</v>
-      </c>
-      <c r="D5" s="39">
-        <v>5</v>
-      </c>
-      <c r="E5" s="40">
-        <v>4</v>
+      <c r="E5" s="18">
+        <v>0</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1641,181 +1835,213 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+    </row>
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
+        <v>44145</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="33">
+        <v>12971</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="34">
+        <v>12989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="195" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>44145</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="9" t="s">
+      <c r="C6" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>44145</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="D6" s="33">
+        <v>12971</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="G6" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H6" s="33"/>
+      <c r="I6" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7" t="s">
+      <c r="L6" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" ht="195" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>44145</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="34">
+        <v>12989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1830,7 +2056,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1845,7 +2071,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1860,7 +2086,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1875,7 +2101,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1890,7 +2116,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1905,7 +2131,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1920,7 +2146,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1935,7 +2161,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1950,7 +2176,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1996,14 +2222,16 @@
       <c r="M18" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ToyotaCertificateIssue.xlsx
+++ b/ToyotaCertificateIssue.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Test cases" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="3" r:id="rId2"/>
     <sheet name="OpenBug" sheetId="2" r:id="rId3"/>
+    <sheet name="UATPDFTestcases" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="112">
   <si>
     <t>Created By:-</t>
   </si>
@@ -331,13 +332,67 @@
     <t>Lead_Developer. :-</t>
   </si>
   <si>
-    <t>Toyota</t>
-  </si>
-  <si>
     <t>Project Name:-Toyota</t>
   </si>
   <si>
     <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>Certificate Number:TKI151442</t>
+  </si>
+  <si>
+    <t>generated certificate should match with the requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify downloaded certificate for Driveline true warranty </t>
+  </si>
+  <si>
+    <t>open downloaded certificate and observing the terms and conditions page</t>
+  </si>
+  <si>
+    <t>Certificate Number:TKI151766</t>
+  </si>
+  <si>
+    <t>AgreementCertificate_TC_10</t>
+  </si>
+  <si>
+    <t>To verify the layout of certifiacate page for  LEXUS EXTENDED WARRANTY</t>
+  </si>
+  <si>
+    <t>Certificate Number=:TKI159679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificate should generate and should be similar to the requirement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificate Number=TKI186364 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificate Number=:TKI186358 </t>
+  </si>
+  <si>
+    <t>certificate generated and format is as per  the requirement</t>
+  </si>
+  <si>
+    <t>18.11.2020</t>
+  </si>
+  <si>
+    <t>User should be able to generate Certificate for the selected agreement number</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Re-Tested Date:-</t>
+  </si>
+  <si>
+    <t>Project Name:-Toyota-UAT</t>
+  </si>
+  <si>
+    <t>Toyota-Dev</t>
+  </si>
+  <si>
+    <t>Toyota-UAT</t>
   </si>
 </sst>
 </file>
@@ -584,7 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -608,9 +663,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -639,6 +691,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -672,56 +733,77 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1006,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,37 +1106,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="A1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="1" t="s">
         <v>35</v>
       </c>
@@ -1070,18 +1152,18 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -1097,16 +1179,16 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="9" t="s">
         <v>54</v>
       </c>
@@ -1200,10 +1282,10 @@
       <c r="M6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="23">
         <v>12989</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1242,13 +1324,13 @@
       <c r="L7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="23">
         <v>12989</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1287,13 +1369,13 @@
       <c r="L8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="23">
         <v>12989</v>
       </c>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1335,10 +1417,10 @@
       <c r="M9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="23">
         <v>12989</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1377,13 +1459,13 @@
       <c r="L10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="23">
         <v>12989</v>
       </c>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1422,13 +1504,13 @@
       <c r="L11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11" s="23">
         <v>12989</v>
       </c>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1467,13 +1549,13 @@
       <c r="L12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="23">
         <v>12989</v>
       </c>
-      <c r="O12" s="33" t="s">
+      <c r="O12" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1512,13 +1594,13 @@
       <c r="L13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="23">
         <v>12989</v>
       </c>
-      <c r="O13" s="33" t="s">
+      <c r="O13" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1557,13 +1639,13 @@
       <c r="L14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="23">
         <v>12989</v>
       </c>
-      <c r="O14" s="33" t="s">
+      <c r="O14" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1740,94 +1822,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="K5" sqref="K5:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>64</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>9</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>9</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>9</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>9</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>9</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>9</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>0</v>
       </c>
       <c r="F5" s="1"/>
+      <c r="K5" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="34"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="K7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="K8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="15">
+        <v>10</v>
+      </c>
+      <c r="M8" s="15">
+        <v>10</v>
+      </c>
+      <c r="N8" s="16">
+        <v>10</v>
+      </c>
+      <c r="O8" s="17">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="18">
+        <v>10</v>
+      </c>
+      <c r="M9" s="15">
+        <v>10</v>
+      </c>
+      <c r="N9" s="16">
+        <v>10</v>
+      </c>
+      <c r="O9" s="17">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="K6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1837,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,192 +2010,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="36" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="10"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="36"/>
     </row>
     <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="54" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+      <c r="A5" s="56">
         <v>44145</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="37">
         <v>12971</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="33" t="s">
+      <c r="H5" s="37"/>
+      <c r="I5" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="58">
         <v>12989</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="195" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
+      <c r="A6" s="56">
         <v>44145</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="37">
         <v>12971</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="33" t="s">
+      <c r="H6" s="37"/>
+      <c r="I6" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="58">
         <v>12989</v>
       </c>
     </row>
@@ -2223,15 +2381,603 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="21">
+        <v>13020</v>
+      </c>
+      <c r="C6" s="38">
+        <v>44153</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="21">
+        <v>13020</v>
+      </c>
+      <c r="C7" s="38">
+        <v>44153</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="21">
+        <v>13020</v>
+      </c>
+      <c r="C8" s="38">
+        <v>44153</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="21">
+        <v>13020</v>
+      </c>
+      <c r="C9" s="38">
+        <v>44153</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="21">
+        <v>13020</v>
+      </c>
+      <c r="C10" s="38">
+        <v>44153</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="21">
+        <v>13020</v>
+      </c>
+      <c r="C11" s="38">
+        <v>44153</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="21">
+        <v>13020</v>
+      </c>
+      <c r="C12" s="38">
+        <v>44153</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="21">
+        <v>13020</v>
+      </c>
+      <c r="C13" s="38">
+        <v>44153</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="21">
+        <v>13020</v>
+      </c>
+      <c r="C14" s="38">
+        <v>44153</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="21">
+        <v>13020</v>
+      </c>
+      <c r="C15" s="38">
+        <v>44153</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="21">
+        <v>13020</v>
+      </c>
+      <c r="C16" s="38">
+        <v>44153</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>